--- a/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_diff_alpha5_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_diff_alpha5_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5666666666666667</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="C3">
-        <v>0.5075921908893709</v>
+        <v>0.5153508771929824</v>
       </c>
       <c r="D3">
-        <v>0.5309734513274337</v>
+        <v>0.481981981981982</v>
       </c>
       <c r="E3">
-        <v>0.5137420718816068</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="F3">
-        <v>0.536</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.5062240663900415</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5061728395061729</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="C4">
-        <v>0.5076923076923077</v>
+        <v>0.5343680709534369</v>
       </c>
       <c r="D4">
-        <v>0.5063291139240507</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E4">
-        <v>0.5063829787234042</v>
+        <v>0.5100574712643678</v>
       </c>
       <c r="F4">
-        <v>0.4140127388535032</v>
+        <v>0.4304635761589404</v>
       </c>
       <c r="G4">
-        <v>0.49002849002849</v>
+        <v>0.5132867132867133</v>
       </c>
       <c r="H4">
-        <v>0.494</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5280898876404494</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C5">
-        <v>0.5264270613107822</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="E5">
-        <v>0.5246995994659546</v>
+        <v>0.5145118733509235</v>
       </c>
       <c r="F5">
-        <v>0.4090909090909091</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="G5">
-        <v>0.5181818181818182</v>
+        <v>0.5141025641025641</v>
       </c>
       <c r="H5">
-        <v>0.486</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5510204081632653</v>
+        <v>0.47</v>
       </c>
       <c r="C6">
-        <v>0.5355731225296443</v>
+        <v>0.5679513184584178</v>
       </c>
       <c r="D6">
-        <v>0.4677419354838709</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="E6">
-        <v>0.5234375</v>
+        <v>0.5070967741935484</v>
       </c>
       <c r="F6">
-        <v>0.3809523809523809</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="G6">
-        <v>0.5131744040150564</v>
+        <v>0.5099502487562189</v>
       </c>
       <c r="H6">
-        <v>0.476</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5607476635514018</v>
+        <v>0.49</v>
       </c>
       <c r="C7">
-        <v>0.5506692160611855</v>
+        <v>0.5743879472693032</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="E7">
-        <v>0.5264550264550265</v>
+        <v>0.5082382762991128</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="G7">
-        <v>0.5063131313131313</v>
+        <v>0.5085995085995086</v>
       </c>
       <c r="H7">
-        <v>0.448</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5514018691588785</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C8">
-        <v>0.5452898550724637</v>
+        <v>0.581981981981982</v>
       </c>
       <c r="D8">
-        <v>0.362962962962963</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E8">
-        <v>0.5365205843293492</v>
+        <v>0.5090439276485789</v>
       </c>
       <c r="F8">
-        <v>0.4086956521739131</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="G8">
-        <v>0.4987437185929648</v>
+        <v>0.5082382762991128</v>
       </c>
       <c r="H8">
-        <v>0.442</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4912280701754386</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="C9">
-        <v>0.5658119658119658</v>
+        <v>0.5939597315436241</v>
       </c>
       <c r="D9">
-        <v>0.4552238805970149</v>
+        <v>0.3495934959349594</v>
       </c>
       <c r="E9">
-        <v>0.5356662180349933</v>
+        <v>0.4993446920052425</v>
       </c>
       <c r="F9">
-        <v>0.3428571428571429</v>
+        <v>0.3551401869158878</v>
       </c>
       <c r="G9">
-        <v>0.4961340206185567</v>
+        <v>0.5069885641677255</v>
       </c>
       <c r="H9">
-        <v>0.44</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.485981308411215</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="C10">
-        <v>0.5772357723577236</v>
+        <v>0.5951612903225807</v>
       </c>
       <c r="D10">
-        <v>0.3893129770992366</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="E10">
-        <v>0.5194109772423026</v>
+        <v>0.4986876640419948</v>
       </c>
       <c r="F10">
-        <v>0.3636363636363636</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="G10">
-        <v>0.4942528735632184</v>
+        <v>0.5006305170239597</v>
       </c>
       <c r="H10">
-        <v>0.42</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4824561403508772</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="C11">
-        <v>0.5762195121951219</v>
+        <v>0.6088957055214724</v>
       </c>
       <c r="D11">
-        <v>0.4227642276422764</v>
+        <v>0.3697478991596639</v>
       </c>
       <c r="E11">
-        <v>0.5166444740346205</v>
+        <v>0.4973753280839895</v>
       </c>
       <c r="F11">
-        <v>0.375</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="G11">
-        <v>0.4846153846153846</v>
+        <v>0.4974619289340101</v>
       </c>
       <c r="H11">
-        <v>0.41</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5089285714285714</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C12">
-        <v>0.5801749271137027</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="D12">
-        <v>0.3909774436090225</v>
+        <v>0.3675213675213675</v>
       </c>
       <c r="E12">
-        <v>0.5059132720105125</v>
+        <v>0.4899866488651535</v>
       </c>
       <c r="F12">
-        <v>0.4166666666666667</v>
+        <v>0.3457943925233645</v>
       </c>
       <c r="G12">
-        <v>0.482367758186398</v>
+        <v>0.4993646759847522</v>
       </c>
       <c r="H12">
-        <v>0.406</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5132743362831859</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>0.5822959889349931</v>
+        <v>0.5939226519337016</v>
       </c>
       <c r="D13">
-        <v>0.4032258064516129</v>
+        <v>0.4656488549618321</v>
       </c>
       <c r="E13">
-        <v>0.5193075898801598</v>
+        <v>0.4821192052980132</v>
       </c>
       <c r="F13">
-        <v>0.3725490196078431</v>
+        <v>0.3274336283185841</v>
       </c>
       <c r="G13">
-        <v>0.4697732997481108</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
-        <v>0.41</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4693877551020408</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C14">
-        <v>0.5790172642762285</v>
+        <v>0.5858854860186418</v>
       </c>
       <c r="D14">
-        <v>0.3781512605042017</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="E14">
-        <v>0.5073041168658698</v>
+        <v>0.4820717131474104</v>
       </c>
       <c r="F14">
-        <v>0.2857142857142857</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="G14">
-        <v>0.4690265486725664</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="H14">
-        <v>0.41</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4684684684684685</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="C15">
-        <v>0.575682382133995</v>
+        <v>0.5803571428571429</v>
       </c>
       <c r="D15">
-        <v>0.4076923076923077</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="E15">
-        <v>0.5084967320261438</v>
+        <v>0.4896373056994819</v>
       </c>
       <c r="F15">
-        <v>0.3423423423423423</v>
+        <v>0.3217391304347826</v>
       </c>
       <c r="G15">
-        <v>0.4777070063694268</v>
+        <v>0.4848866498740554</v>
       </c>
       <c r="H15">
-        <v>0.378</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5151515151515151</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C16">
-        <v>0.5705669481302774</v>
+        <v>0.5890243902439024</v>
       </c>
       <c r="D16">
-        <v>0.4545454545454545</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="E16">
-        <v>0.5065274151436031</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="F16">
-        <v>0.3106796116504854</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="G16">
-        <v>0.4684343434343434</v>
+        <v>0.4791403286978508</v>
       </c>
       <c r="H16">
-        <v>0.38</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5384615384615384</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="C17">
-        <v>0.566320645905421</v>
+        <v>0.5822637106184364</v>
       </c>
       <c r="D17">
-        <v>0.4344262295081967</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E17">
-        <v>0.5091623036649214</v>
+        <v>0.4929032258064516</v>
       </c>
       <c r="F17">
-        <v>0.3564356435643564</v>
+        <v>0.3297872340425532</v>
       </c>
       <c r="G17">
-        <v>0.4664131812420786</v>
+        <v>0.4719800747198007</v>
       </c>
       <c r="H17">
-        <v>0.374</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5225225225225225</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="C18">
-        <v>0.5606741573033708</v>
+        <v>0.5776053215077606</v>
       </c>
       <c r="D18">
-        <v>0.4065040650406504</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="E18">
-        <v>0.5245033112582781</v>
+        <v>0.4961636828644501</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.2912621359223301</v>
       </c>
       <c r="G18">
-        <v>0.4642857142857143</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="H18">
-        <v>0.36</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4736842105263158</v>
+        <v>0.51</v>
       </c>
       <c r="C19">
-        <v>0.5536105032822757</v>
+        <v>0.5862433862433862</v>
       </c>
       <c r="D19">
-        <v>0.4521739130434783</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="E19">
-        <v>0.5196850393700787</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.3214285714285715</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="G19">
-        <v>0.4607594936708861</v>
+        <v>0.4620253164556962</v>
       </c>
       <c r="H19">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,22 +894,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4375</v>
+        <v>0.5486725663716814</v>
       </c>
       <c r="C20">
-        <v>0.556020942408377</v>
+        <v>0.5845213849287169</v>
       </c>
       <c r="D20">
-        <v>0.4918032786885246</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="E20">
-        <v>0.517948717948718</v>
+        <v>0.4961439588688946</v>
       </c>
       <c r="F20">
-        <v>0.3564356435643564</v>
+        <v>0.2956521739130435</v>
       </c>
       <c r="G20">
-        <v>0.4558080808080808</v>
+        <v>0.4618272841051314</v>
       </c>
       <c r="H20">
         <v>0.346</v>
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4672897196261682</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="C21">
-        <v>0.5625</v>
+        <v>0.5791044776119403</v>
       </c>
       <c r="D21">
-        <v>0.5042735042735043</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="E21">
-        <v>0.5154639175257731</v>
+        <v>0.4923664122137404</v>
       </c>
       <c r="F21">
-        <v>0.3137254901960784</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="G21">
-        <v>0.4455445544554456</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="H21">
-        <v>0.352</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5089285714285714</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C22">
-        <v>0.5585412667946257</v>
+        <v>0.582302568981922</v>
       </c>
       <c r="D22">
-        <v>0.4112903225806452</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="E22">
-        <v>0.5115681233933161</v>
+        <v>0.48125</v>
       </c>
       <c r="F22">
-        <v>0.3619047619047619</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="G22">
-        <v>0.445679012345679</v>
+        <v>0.4308252427184466</v>
       </c>
       <c r="H22">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4778761061946903</v>
+        <v>0.51</v>
       </c>
       <c r="C23">
-        <v>0.5612535612535613</v>
+        <v>0.576427255985267</v>
       </c>
       <c r="D23">
-        <v>0.4035087719298245</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="E23">
-        <v>0.5238095238095238</v>
+        <v>0.4772151898734177</v>
       </c>
       <c r="F23">
-        <v>0.391304347826087</v>
+        <v>0.375</v>
       </c>
       <c r="G23">
-        <v>0.4437420986093553</v>
+        <v>0.4323995127892813</v>
       </c>
       <c r="H23">
-        <v>0.338</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4766355140186916</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="C24">
-        <v>0.5639374425022999</v>
+        <v>0.5683836589698046</v>
       </c>
       <c r="D24">
-        <v>0.376</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="E24">
-        <v>0.5288713910761155</v>
+        <v>0.4848101265822785</v>
       </c>
       <c r="F24">
-        <v>0.3909090909090909</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="G24">
-        <v>0.4461152882205514</v>
+        <v>0.4266337854500616</v>
       </c>
       <c r="H24">
-        <v>0.336</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4583333333333333</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="C25">
-        <v>0.5642857142857143</v>
+        <v>0.5663716814159292</v>
       </c>
       <c r="D25">
-        <v>0.4107142857142857</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="E25">
-        <v>0.5124183006535947</v>
+        <v>0.4928848641655886</v>
       </c>
       <c r="F25">
-        <v>0.3486238532110092</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="G25">
-        <v>0.4415094339622642</v>
+        <v>0.4283903675538657</v>
       </c>
       <c r="H25">
-        <v>0.336</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4905660377358491</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="C26">
-        <v>0.5728241563055062</v>
+        <v>0.5661512027491409</v>
       </c>
       <c r="D26">
-        <v>0.3504273504273504</v>
+        <v>0.4214876033057851</v>
       </c>
       <c r="E26">
-        <v>0.5136897001303781</v>
+        <v>0.4902216427640156</v>
       </c>
       <c r="F26">
-        <v>0.3883495145631068</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="G26">
-        <v>0.4479695431472081</v>
+        <v>0.4304123711340206</v>
       </c>
       <c r="H26">
-        <v>0.326</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.4827586206896552</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C27">
-        <v>0.5662959794696322</v>
+        <v>0.5687086092715232</v>
       </c>
       <c r="D27">
-        <v>0.3257575757575757</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="E27">
-        <v>0.5084967320261438</v>
+        <v>0.5045751633986928</v>
       </c>
       <c r="F27">
-        <v>0.3363636363636364</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="G27">
-        <v>0.4459798994974875</v>
+        <v>0.4298356510745892</v>
       </c>
       <c r="H27">
-        <v>0.314</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4905660377358491</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C28">
-        <v>0.5766609880749574</v>
+        <v>0.5587996755879967</v>
       </c>
       <c r="D28">
-        <v>0.3488372093023256</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="E28">
-        <v>0.505420054200542</v>
+        <v>0.5057618437900128</v>
       </c>
       <c r="F28">
-        <v>0.3695652173913043</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="G28">
-        <v>0.448849104859335</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H28">
-        <v>0.316</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5242718446601942</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C29">
-        <v>0.5738916256157636</v>
+        <v>0.5625</v>
       </c>
       <c r="D29">
-        <v>0.2790697674418605</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E29">
-        <v>0.5</v>
+        <v>0.4993614303959131</v>
       </c>
       <c r="F29">
-        <v>0.3523809523809524</v>
+        <v>0.3</v>
       </c>
       <c r="G29">
-        <v>0.4523809523809524</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="H29">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5142857142857142</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C30">
-        <v>0.5740445859872612</v>
+        <v>0.5575896262395118</v>
       </c>
       <c r="D30">
-        <v>0.325</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="E30">
-        <v>0.4888888888888889</v>
+        <v>0.4904458598726115</v>
       </c>
       <c r="F30">
-        <v>0.3608247422680412</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="G30">
-        <v>0.4466501240694789</v>
+        <v>0.4278606965174129</v>
       </c>
       <c r="H30">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.4732142857142857</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="C31">
-        <v>0.5748091603053435</v>
+        <v>0.551698670605613</v>
       </c>
       <c r="D31">
-        <v>0.3275862068965517</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="E31">
-        <v>0.476552598225602</v>
+        <v>0.491698595146871</v>
       </c>
       <c r="F31">
-        <v>0.3924050632911392</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="G31">
-        <v>0.4420289855072464</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="H31">
-        <v>0.306</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4778761061946903</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="C32">
-        <v>0.5818997756170531</v>
+        <v>0.5533285612025769</v>
       </c>
       <c r="D32">
-        <v>0.34</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E32">
-        <v>0.4734848484848485</v>
+        <v>0.4874055415617128</v>
       </c>
       <c r="F32">
-        <v>0.3580246913580247</v>
+        <v>0.3804347826086957</v>
       </c>
       <c r="G32">
-        <v>0.4333333333333333</v>
+        <v>0.4255842558425584</v>
       </c>
       <c r="H32">
-        <v>0.308</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5523809523809524</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C33">
-        <v>0.5802650957290133</v>
+        <v>0.5551601423487544</v>
       </c>
       <c r="D33">
-        <v>0.3584905660377358</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="E33">
-        <v>0.4681122448979592</v>
+        <v>0.4942528735632184</v>
       </c>
       <c r="F33">
-        <v>0.3666666666666666</v>
+        <v>0.3882352941176471</v>
       </c>
       <c r="G33">
-        <v>0.4395604395604396</v>
+        <v>0.4239401496259352</v>
       </c>
       <c r="H33">
-        <v>0.308</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5882352941176471</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="C34">
-        <v>0.5738636363636364</v>
+        <v>0.5564174894217208</v>
       </c>
       <c r="D34">
-        <v>0.3571428571428572</v>
+        <v>0.3884297520661157</v>
       </c>
       <c r="E34">
-        <v>0.4648786717752235</v>
+        <v>0.493573264781491</v>
       </c>
       <c r="F34">
-        <v>0.3366336633663367</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="G34">
-        <v>0.4338235294117647</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H34">
-        <v>0.314</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5420560747663551</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="C35">
-        <v>0.5667134831460674</v>
+        <v>0.5488980716253443</v>
       </c>
       <c r="D35">
-        <v>0.3652173913043478</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="E35">
-        <v>0.4661458333333333</v>
+        <v>0.4954838709677419</v>
       </c>
       <c r="F35">
-        <v>0.2795698924731183</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="G35">
-        <v>0.4296482412060301</v>
+        <v>0.4312267657992565</v>
       </c>
       <c r="H35">
-        <v>0.328</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5350877192982456</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="C36">
-        <v>0.5696636925188744</v>
+        <v>0.5459459459459459</v>
       </c>
       <c r="D36">
-        <v>0.4014084507042254</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="E36">
-        <v>0.4640522875816994</v>
+        <v>0.4923664122137404</v>
       </c>
       <c r="F36">
-        <v>0.2727272727272727</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="G36">
-        <v>0.4322981366459627</v>
+        <v>0.4292682926829268</v>
       </c>
       <c r="H36">
-        <v>0.322</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5277777777777778</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="C37">
-        <v>0.5737483085250338</v>
+        <v>0.5488524590163935</v>
       </c>
       <c r="D37">
-        <v>0.4049586776859504</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="E37">
-        <v>0.4687083888149134</v>
+        <v>0.4828897338403042</v>
       </c>
       <c r="F37">
-        <v>0.2736842105263158</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="G37">
-        <v>0.4303638644918444</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="H37">
-        <v>0.312</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4848484848484849</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="C38">
-        <v>0.5769230769230769</v>
+        <v>0.5498704663212435</v>
       </c>
       <c r="D38">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E38">
-        <v>0.4636723910171731</v>
+        <v>0.4779874213836478</v>
       </c>
       <c r="F38">
-        <v>0.2830188679245283</v>
+        <v>0.3689320388349515</v>
       </c>
       <c r="G38">
-        <v>0.4328732747804266</v>
+        <v>0.4374225526641883</v>
       </c>
       <c r="H38">
-        <v>0.306</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4716981132075472</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="C39">
-        <v>0.5823680823680824</v>
+        <v>0.5452261306532663</v>
       </c>
       <c r="D39">
-        <v>0.3435114503816794</v>
+        <v>0.3551401869158878</v>
       </c>
       <c r="E39">
-        <v>0.451783355350066</v>
+        <v>0.4788029925187032</v>
       </c>
       <c r="F39">
-        <v>0.3083333333333333</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="G39">
-        <v>0.4307304785894207</v>
+        <v>0.4432098765432099</v>
       </c>
       <c r="H39">
-        <v>0.304</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4897959183673469</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="C40">
-        <v>0.5772870662460567</v>
+        <v>0.5425400739827374</v>
       </c>
       <c r="D40">
-        <v>0.3162393162393162</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="E40">
-        <v>0.4534883720930232</v>
+        <v>0.4748743718592965</v>
       </c>
       <c r="F40">
-        <v>0.3564356435643564</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="G40">
-        <v>0.4282115869017632</v>
+        <v>0.4434889434889435</v>
       </c>
       <c r="H40">
-        <v>0.294</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4886363636363636</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="C41">
-        <v>0.5748613678373382</v>
+        <v>0.5467065868263473</v>
       </c>
       <c r="D41">
-        <v>0.3238095238095238</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E41">
-        <v>0.4491094147582697</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="F41">
-        <v>0.3085106382978723</v>
+        <v>0.3125</v>
       </c>
       <c r="G41">
-        <v>0.4239802224969098</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H41">
-        <v>0.304</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5393258426966292</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C42">
-        <v>0.574107683000605</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="D42">
-        <v>0.3018867924528302</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="E42">
-        <v>0.4559386973180077</v>
+        <v>0.471190781049936</v>
       </c>
       <c r="F42">
-        <v>0.2959183673469388</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="G42">
-        <v>0.4215080346106304</v>
+        <v>0.4393564356435644</v>
       </c>
       <c r="H42">
-        <v>0.304</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.5510204081632653</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="C43">
-        <v>0.5665083135391924</v>
+        <v>0.5435034802784223</v>
       </c>
       <c r="D43">
-        <v>0.3619047619047619</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E43">
-        <v>0.4582798459563543</v>
+        <v>0.4715762273901809</v>
       </c>
       <c r="F43">
-        <v>0.2277227722772277</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="G43">
-        <v>0.4273291925465839</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="H43">
-        <v>0.302</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1521,19 +1521,19 @@
         <v>0.5</v>
       </c>
       <c r="C44">
-        <v>0.5628287551139685</v>
+        <v>0.544</v>
       </c>
       <c r="D44">
-        <v>0.4018691588785047</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="E44">
-        <v>0.4509554140127389</v>
+        <v>0.4797913950456323</v>
       </c>
       <c r="F44">
-        <v>0.288659793814433</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G44">
-        <v>0.4244694132334582</v>
+        <v>0.43625</v>
       </c>
       <c r="H44">
         <v>0.306</v>
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4778761061946903</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="C45">
-        <v>0.5613425925925926</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D45">
-        <v>0.4380952380952381</v>
+        <v>0.36</v>
       </c>
       <c r="E45">
-        <v>0.4610472541507024</v>
+        <v>0.4803149606299212</v>
       </c>
       <c r="F45">
-        <v>0.297029702970297</v>
+        <v>0.2735849056603774</v>
       </c>
       <c r="G45">
-        <v>0.4134495641344956</v>
+        <v>0.4429109159347553</v>
       </c>
       <c r="H45">
-        <v>0.314</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5309734513274337</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="C46">
-        <v>0.5618233618233618</v>
+        <v>0.5388858246001104</v>
       </c>
       <c r="D46">
-        <v>0.4424778761061947</v>
+        <v>0.4</v>
       </c>
       <c r="E46">
-        <v>0.4591836734693878</v>
+        <v>0.489501312335958</v>
       </c>
       <c r="F46">
-        <v>0.2941176470588235</v>
+        <v>0.3203883495145631</v>
       </c>
       <c r="G46">
-        <v>0.4084682440846825</v>
+        <v>0.4389937106918239</v>
       </c>
       <c r="H46">
-        <v>0.32</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C47">
-        <v>0.5561111111111111</v>
+        <v>0.5373376623376623</v>
       </c>
       <c r="D47">
-        <v>0.4196428571428572</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="E47">
-        <v>0.4641509433962264</v>
+        <v>0.4832474226804124</v>
       </c>
       <c r="F47">
-        <v>0.3020833333333333</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="G47">
-        <v>0.3990267639902677</v>
+        <v>0.4301745635910225</v>
       </c>
       <c r="H47">
-        <v>0.32</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5210084033613446</v>
+        <v>0.4462809917355372</v>
       </c>
       <c r="C48">
-        <v>0.5581778265642151</v>
+        <v>0.5394594594594595</v>
       </c>
       <c r="D48">
-        <v>0.42</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E48">
-        <v>0.4632911392405064</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="F48">
-        <v>0.2954545454545455</v>
+        <v>0.2912621359223301</v>
       </c>
       <c r="G48">
-        <v>0.3970588235294117</v>
+        <v>0.4298356510745892</v>
       </c>
       <c r="H48">
-        <v>0.306</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,22 +1648,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5247524752475248</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="C49">
-        <v>0.5544768069039914</v>
+        <v>0.5392364793213149</v>
       </c>
       <c r="D49">
-        <v>0.4636363636363636</v>
+        <v>0.4298245614035088</v>
       </c>
       <c r="E49">
-        <v>0.4550063371356147</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="F49">
-        <v>0.3703703703703703</v>
+        <v>0.3303571428571428</v>
       </c>
       <c r="G49">
-        <v>0.395320197044335</v>
+        <v>0.425</v>
       </c>
       <c r="H49">
         <v>0.302</v>
@@ -1674,22 +1674,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.514018691588785</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C50">
-        <v>0.5529225908372828</v>
+        <v>0.5370950888192267</v>
       </c>
       <c r="D50">
-        <v>0.4150943396226415</v>
+        <v>0.405940594059406</v>
       </c>
       <c r="E50">
-        <v>0.4491634491634492</v>
+        <v>0.4858611825192802</v>
       </c>
       <c r="F50">
-        <v>0.3763440860215054</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="G50">
-        <v>0.3944723618090452</v>
+        <v>0.4179292929292929</v>
       </c>
       <c r="H50">
         <v>0.304</v>
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5096153846153846</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C51">
-        <v>0.5501043841336117</v>
+        <v>0.5295031055900621</v>
       </c>
       <c r="D51">
-        <v>0.3982300884955752</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="E51">
-        <v>0.4561855670103093</v>
+        <v>0.491698595146871</v>
       </c>
       <c r="F51">
-        <v>0.3644859813084112</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="G51">
-        <v>0.4037267080745341</v>
+        <v>0.4153074027603513</v>
       </c>
       <c r="H51">
-        <v>0.29</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5480769230769231</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C52">
-        <v>0.5489690721649485</v>
+        <v>0.5305401312468451</v>
       </c>
       <c r="D52">
-        <v>0.4601769911504425</v>
+        <v>0.3982300884955752</v>
       </c>
       <c r="E52">
-        <v>0.4604409857328145</v>
+        <v>0.4911616161616162</v>
       </c>
       <c r="F52">
-        <v>0.3636363636363636</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="G52">
-        <v>0.4022698612862547</v>
+        <v>0.4132841328413284</v>
       </c>
       <c r="H52">
-        <v>0.274</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5098039215686274</v>
+        <v>0.4766355140186916</v>
       </c>
       <c r="C53">
-        <v>0.5442589782498736</v>
+        <v>0.5336994508237644</v>
       </c>
       <c r="D53">
-        <v>0.4201680672268908</v>
+        <v>0.3406593406593407</v>
       </c>
       <c r="E53">
-        <v>0.4630102040816326</v>
+        <v>0.4866581956797967</v>
       </c>
       <c r="F53">
-        <v>0.34</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="G53">
-        <v>0.400990099009901</v>
+        <v>0.4176904176904177</v>
       </c>
       <c r="H53">
-        <v>0.268</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4554455445544555</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C54">
-        <v>0.5466799800299551</v>
+        <v>0.534769833496572</v>
       </c>
       <c r="D54">
-        <v>0.392156862745098</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="E54">
-        <v>0.4671814671814672</v>
+        <v>0.4794007490636704</v>
       </c>
       <c r="F54">
-        <v>0.2941176470588235</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="G54">
-        <v>0.4042027194066749</v>
+        <v>0.4109756097560975</v>
       </c>
       <c r="H54">
-        <v>0.274</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="C55">
-        <v>0.5472807447329741</v>
+        <v>0.5284118504128218</v>
       </c>
       <c r="D55">
-        <v>0.3448275862068966</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="E55">
-        <v>0.4646464646464646</v>
+        <v>0.4734848484848485</v>
       </c>
       <c r="F55">
-        <v>0.3018867924528302</v>
+        <v>0.3125</v>
       </c>
       <c r="G55">
-        <v>0.4076827757125155</v>
+        <v>0.4063260340632603</v>
       </c>
       <c r="H55">
-        <v>0.266</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4953271028037383</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C56">
-        <v>0.5432038834951456</v>
+        <v>0.5302593659942363</v>
       </c>
       <c r="D56">
-        <v>0.3689320388349515</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E56">
-        <v>0.4689119170984456</v>
+        <v>0.4701397712833545</v>
       </c>
       <c r="F56">
-        <v>0.3255813953488372</v>
+        <v>0.3625</v>
       </c>
       <c r="G56">
-        <v>0.4082914572864322</v>
+        <v>0.4140435835351089</v>
       </c>
       <c r="H56">
-        <v>0.262</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4807692307692308</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="C57">
-        <v>0.5408261287223823</v>
+        <v>0.5282392026578073</v>
       </c>
       <c r="D57">
-        <v>0.4333333333333333</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="E57">
-        <v>0.4646074646074646</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="F57">
-        <v>0.2844036697247707</v>
+        <v>0.3125</v>
       </c>
       <c r="G57">
-        <v>0.4054388133498146</v>
+        <v>0.4056372549019608</v>
       </c>
       <c r="H57">
-        <v>0.276</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5333333333333333</v>
+        <v>0.5596330275229358</v>
       </c>
       <c r="C58">
-        <v>0.5362387494078635</v>
+        <v>0.5244360902255639</v>
       </c>
       <c r="D58">
-        <v>0.4642857142857143</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="E58">
-        <v>0.4646983311938382</v>
+        <v>0.471042471042471</v>
       </c>
       <c r="F58">
-        <v>0.303921568627451</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="G58">
-        <v>0.4107365792759051</v>
+        <v>0.4207920792079208</v>
       </c>
       <c r="H58">
-        <v>0.264</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5384615384615384</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C59">
-        <v>0.5343618513323983</v>
+        <v>0.5255338904363974</v>
       </c>
       <c r="D59">
-        <v>0.4857142857142857</v>
+        <v>0.3644067796610169</v>
       </c>
       <c r="E59">
-        <v>0.4619289340101523</v>
+        <v>0.4649350649350649</v>
       </c>
       <c r="F59">
-        <v>0.3061224489795918</v>
+        <v>0.2872340425531915</v>
       </c>
       <c r="G59">
-        <v>0.4148148148148148</v>
+        <v>0.4188351920693928</v>
       </c>
       <c r="H59">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5454545454545454</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="C60">
-        <v>0.5335803612783696</v>
+        <v>0.5299223389675651</v>
       </c>
       <c r="D60">
-        <v>0.3925233644859813</v>
+        <v>0.3543307086614173</v>
       </c>
       <c r="E60">
-        <v>0.4685138539042821</v>
+        <v>0.4695201037613489</v>
       </c>
       <c r="F60">
-        <v>0.3333333333333333</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="G60">
-        <v>0.4113300492610837</v>
+        <v>0.4236453201970443</v>
       </c>
       <c r="H60">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4811320754716981</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="C61">
-        <v>0.5335769757880311</v>
+        <v>0.5283862315601252</v>
       </c>
       <c r="D61">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E61">
-        <v>0.4734177215189874</v>
+        <v>0.4689922480620155</v>
       </c>
       <c r="F61">
-        <v>0.2954545454545455</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="G61">
-        <v>0.412484700122399</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H61">
-        <v>0.26</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4864864864864865</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="C62">
-        <v>0.5333333333333333</v>
+        <v>0.5272168568920106</v>
       </c>
       <c r="D62">
-        <v>0.3097345132743363</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="E62">
-        <v>0.4679245283018868</v>
+        <v>0.4589127686472819</v>
       </c>
       <c r="F62">
-        <v>0.3225806451612903</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="G62">
-        <v>0.4116930572472595</v>
+        <v>0.4179829890643986</v>
       </c>
       <c r="H62">
-        <v>0.266</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5327868852459017</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C63">
-        <v>0.5339631129104814</v>
+        <v>0.527304499781564</v>
       </c>
       <c r="D63">
-        <v>0.3689320388349515</v>
+        <v>0.2934782608695652</v>
       </c>
       <c r="E63">
-        <v>0.4699872286079183</v>
+        <v>0.4618272841051314</v>
       </c>
       <c r="F63">
-        <v>0.3229166666666667</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="G63">
-        <v>0.4115479115479115</v>
+        <v>0.4174876847290641</v>
       </c>
       <c r="H63">
-        <v>0.266</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5126050420168067</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="C64">
-        <v>0.5306487695749441</v>
+        <v>0.5251517779705117</v>
       </c>
       <c r="D64">
-        <v>0.36</v>
+        <v>0.3363636363636364</v>
       </c>
       <c r="E64">
-        <v>0.460575719649562</v>
+        <v>0.4642409033877039</v>
       </c>
       <c r="F64">
-        <v>0.34</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="G64">
-        <v>0.4095940959409594</v>
+        <v>0.4183168316831683</v>
       </c>
       <c r="H64">
-        <v>0.272</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5185185185185185</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="C65">
-        <v>0.5325131810193322</v>
+        <v>0.5253654342218401</v>
       </c>
       <c r="D65">
-        <v>0.3010752688172043</v>
+        <v>0.3983050847457627</v>
       </c>
       <c r="E65">
-        <v>0.4510532837670384</v>
+        <v>0.4683870967741935</v>
       </c>
       <c r="F65">
-        <v>0.3068181818181818</v>
+        <v>0.2547169811320755</v>
       </c>
       <c r="G65">
-        <v>0.4102564102564102</v>
+        <v>0.4225526641883519</v>
       </c>
       <c r="H65">
-        <v>0.268</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6145833333333334</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C66">
-        <v>0.5327548806941431</v>
+        <v>0.5295618885580604</v>
       </c>
       <c r="D66">
-        <v>0.3052631578947368</v>
+        <v>0.3471074380165289</v>
       </c>
       <c r="E66">
-        <v>0.4514925373134329</v>
+        <v>0.4706649282920469</v>
       </c>
       <c r="F66">
-        <v>0.2941176470588235</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="G66">
-        <v>0.4155528554070474</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H66">
-        <v>0.254</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6181818181818182</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="C67">
-        <v>0.529285099052541</v>
+        <v>0.5275325767129045</v>
       </c>
       <c r="D67">
-        <v>0.2596153846153846</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="E67">
-        <v>0.4501278772378516</v>
+        <v>0.4635416666666667</v>
       </c>
       <c r="F67">
-        <v>0.3402061855670103</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="G67">
-        <v>0.4226932668329177</v>
+        <v>0.407035175879397</v>
       </c>
       <c r="H67">
-        <v>0.26</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5666666666666667</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="C68">
-        <v>0.5272649205667669</v>
+        <v>0.5271059216013344</v>
       </c>
       <c r="D68">
-        <v>0.3149606299212598</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E68">
-        <v>0.4578469520103761</v>
+        <v>0.4705111402359109</v>
       </c>
       <c r="F68">
-        <v>0.2946428571428572</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="G68">
-        <v>0.4162436548223351</v>
+        <v>0.3880407124681934</v>
       </c>
       <c r="H68">
-        <v>0.264</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C69">
-        <v>0.5275190516511431</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="D69">
-        <v>0.3471074380165289</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E69">
-        <v>0.4442970822281167</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="F69">
-        <v>0.2523364485981308</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G69">
-        <v>0.4174135723431498</v>
+        <v>0.3807740324594257</v>
       </c>
       <c r="H69">
-        <v>0.26</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4591836734693878</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="C70">
-        <v>0.5263601855757064</v>
+        <v>0.5276198212835094</v>
       </c>
       <c r="D70">
-        <v>0.4031007751937984</v>
+        <v>0.39</v>
       </c>
       <c r="E70">
-        <v>0.4384816753926701</v>
+        <v>0.4576485461441214</v>
       </c>
       <c r="F70">
-        <v>0.3513513513513514</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="G70">
-        <v>0.410126582278481</v>
+        <v>0.3711083437110834</v>
       </c>
       <c r="H70">
-        <v>0.266</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5047619047619047</v>
+        <v>0.5398230088495575</v>
       </c>
       <c r="C71">
-        <v>0.5291909924937448</v>
+        <v>0.5271848570277889</v>
       </c>
       <c r="D71">
-        <v>0.3947368421052632</v>
+        <v>0.36</v>
       </c>
       <c r="E71">
-        <v>0.4263363754889178</v>
+        <v>0.455919395465995</v>
       </c>
       <c r="F71">
-        <v>0.32</v>
+        <v>0.2784810126582278</v>
       </c>
       <c r="G71">
-        <v>0.4017632241813602</v>
+        <v>0.3667905824039653</v>
       </c>
       <c r="H71">
-        <v>0.268</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5636363636363636</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="C72">
-        <v>0.5240464344941956</v>
+        <v>0.527468152866242</v>
       </c>
       <c r="D72">
-        <v>0.3069306930693069</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E72">
-        <v>0.4278416347381865</v>
+        <v>0.4522613065326633</v>
       </c>
       <c r="F72">
-        <v>0.3636363636363636</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="G72">
-        <v>0.408641975308642</v>
+        <v>0.3689903846153846</v>
       </c>
       <c r="H72">
-        <v>0.262</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5225225225225225</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="C73">
-        <v>0.5206100577081616</v>
+        <v>0.5289484048838126</v>
       </c>
       <c r="D73">
-        <v>0.39</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E73">
-        <v>0.4343434343434344</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="F73">
-        <v>0.336734693877551</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="G73">
-        <v>0.420125786163522</v>
+        <v>0.3713592233009709</v>
       </c>
       <c r="H73">
-        <v>0.252</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5196850393700787</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="C74">
-        <v>0.5205535205535206</v>
+        <v>0.5278853601859024</v>
       </c>
       <c r="D74">
-        <v>0.3867924528301887</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="E74">
-        <v>0.42125</v>
+        <v>0.4596977329974811</v>
       </c>
       <c r="F74">
-        <v>0.3090909090909091</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="G74">
-        <v>0.4199507389162562</v>
+        <v>0.3765281173594132</v>
       </c>
       <c r="H74">
-        <v>0.254</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.4661016949152542</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C75">
-        <v>0.5182481751824818</v>
+        <v>0.5309258547829427</v>
       </c>
       <c r="D75">
-        <v>0.3523809523809524</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="E75">
-        <v>0.4237074401008827</v>
+        <v>0.4571788413098237</v>
       </c>
       <c r="F75">
-        <v>0.3846153846153846</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="G75">
-        <v>0.4275</v>
+        <v>0.3778054862842893</v>
       </c>
       <c r="H75">
-        <v>0.246</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4310344827586207</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="C76">
-        <v>0.5195686900958466</v>
+        <v>0.5278625954198474</v>
       </c>
       <c r="D76">
-        <v>0.4017094017094017</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="E76">
-        <v>0.4258555133079848</v>
+        <v>0.4551201011378003</v>
       </c>
       <c r="F76">
-        <v>0.3714285714285714</v>
+        <v>0.3</v>
       </c>
       <c r="G76">
-        <v>0.4167694204685574</v>
+        <v>0.3658838071693449</v>
       </c>
       <c r="H76">
-        <v>0.244</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4695652173913044</v>
+        <v>0.5</v>
       </c>
       <c r="C77">
-        <v>0.5194290245836638</v>
+        <v>0.525187969924812</v>
       </c>
       <c r="D77">
-        <v>0.3771929824561404</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="E77">
-        <v>0.425614489003881</v>
+        <v>0.4567126725219574</v>
       </c>
       <c r="F77">
-        <v>0.3368421052631579</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="G77">
-        <v>0.4193954659949622</v>
+        <v>0.358282208588957</v>
       </c>
       <c r="H77">
-        <v>0.236</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5412844036697247</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="C78">
-        <v>0.5172143974960877</v>
+        <v>0.5235074626865671</v>
       </c>
       <c r="D78">
-        <v>0.4126984126984127</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="E78">
-        <v>0.4313471502590673</v>
+        <v>0.459493670886076</v>
       </c>
       <c r="F78">
-        <v>0.3020833333333333</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="G78">
-        <v>0.4154228855721393</v>
+        <v>0.3525091799265606</v>
       </c>
       <c r="H78">
-        <v>0.246</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.4818181818181818</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C79">
-        <v>0.5116550116550117</v>
+        <v>0.524145616641902</v>
       </c>
       <c r="D79">
-        <v>0.4102564102564102</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="E79">
-        <v>0.4351245085190039</v>
+        <v>0.4619354838709677</v>
       </c>
       <c r="F79">
-        <v>0.2417582417582418</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="G79">
-        <v>0.4205955334987593</v>
+        <v>0.3611793611793612</v>
       </c>
       <c r="H79">
-        <v>0.25</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.4948453608247423</v>
+        <v>0.49</v>
       </c>
       <c r="C80">
-        <v>0.5124473381846036</v>
+        <v>0.5192660550458715</v>
       </c>
       <c r="D80">
-        <v>0.3902439024390244</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="E80">
-        <v>0.4296577946768061</v>
+        <v>0.4705128205128205</v>
       </c>
       <c r="F80">
-        <v>0.2222222222222222</v>
+        <v>0.2872340425531915</v>
       </c>
       <c r="G80">
-        <v>0.4179829890643986</v>
+        <v>0.3570552147239264</v>
       </c>
       <c r="H80">
-        <v>0.254</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.4795918367346939</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="C81">
-        <v>0.512810851544838</v>
+        <v>0.5178181818181818</v>
       </c>
       <c r="D81">
-        <v>0.3265306122448979</v>
+        <v>0.4036697247706422</v>
       </c>
       <c r="E81">
-        <v>0.4409148665819568</v>
+        <v>0.4750320102432778</v>
       </c>
       <c r="F81">
-        <v>0.2837837837837838</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="G81">
-        <v>0.4233576642335766</v>
+        <v>0.358282208588957</v>
       </c>
       <c r="H81">
-        <v>0.256</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5301204819277109</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="C82">
-        <v>0.5138266068759342</v>
+        <v>0.5170068027210885</v>
       </c>
       <c r="D82">
-        <v>0.29</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="E82">
-        <v>0.4487989886219975</v>
+        <v>0.4790343074968234</v>
       </c>
       <c r="F82">
-        <v>0.2716049382716049</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="G82">
-        <v>0.416969696969697</v>
+        <v>0.3648648648648649</v>
       </c>
       <c r="H82">
-        <v>0.252</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5148514851485149</v>
+        <v>0.5041322314049587</v>
       </c>
       <c r="C83">
-        <v>0.5114729829755736</v>
+        <v>0.5121602288984263</v>
       </c>
       <c r="D83">
-        <v>0.3207547169811321</v>
+        <v>0.4020618556701031</v>
       </c>
       <c r="E83">
-        <v>0.4452926208651399</v>
+        <v>0.4860406091370558</v>
       </c>
       <c r="F83">
-        <v>0.3111111111111111</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G83">
-        <v>0.4134146341463414</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="H83">
-        <v>0.258</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C84">
-        <v>0.5114306784660767</v>
+        <v>0.5145493257629524</v>
       </c>
       <c r="D84">
-        <v>0.2941176470588235</v>
+        <v>0.41</v>
       </c>
       <c r="E84">
-        <v>0.4382165605095542</v>
+        <v>0.4875</v>
       </c>
       <c r="F84">
-        <v>0.2795698924731183</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="G84">
-        <v>0.4049079754601227</v>
+        <v>0.3570552147239264</v>
       </c>
       <c r="H84">
-        <v>0.258</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5</v>
+        <v>0.5080645161290323</v>
       </c>
       <c r="C85">
-        <v>0.5072886297376094</v>
+        <v>0.5130742049469965</v>
       </c>
       <c r="D85">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="E85">
+        <v>0.4874371859296482</v>
+      </c>
+      <c r="F85">
         <v>0.3</v>
       </c>
-      <c r="E85">
-        <v>0.4418901660280971</v>
-      </c>
-      <c r="F85">
-        <v>0.3010752688172043</v>
-      </c>
       <c r="G85">
-        <v>0.401468788249694</v>
+        <v>0.354601226993865</v>
       </c>
       <c r="H85">
-        <v>0.266</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4878048780487805</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="C86">
-        <v>0.5038167938931297</v>
+        <v>0.512075603780189</v>
       </c>
       <c r="D86">
-        <v>0.3333333333333333</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="E86">
-        <v>0.4292929292929293</v>
+        <v>0.493099121706399</v>
       </c>
       <c r="F86">
         <v>0.3052631578947368</v>
       </c>
       <c r="G86">
-        <v>0.4043848964677223</v>
+        <v>0.3552795031055901</v>
       </c>
       <c r="H86">
-        <v>0.262</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.495575221238938</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="C87">
-        <v>0.5030830612985129</v>
+        <v>0.5081118398343114</v>
       </c>
       <c r="D87">
-        <v>0.4150943396226415</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="E87">
-        <v>0.4292929292929293</v>
+        <v>0.4987244897959184</v>
       </c>
       <c r="F87">
-        <v>0.3894736842105263</v>
+        <v>0.2524271844660194</v>
       </c>
       <c r="G87">
-        <v>0.4044665012406948</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="H87">
-        <v>0.268</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4403669724770642</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C88">
-        <v>0.5044851094366702</v>
+        <v>0.5085969738651994</v>
       </c>
       <c r="D88">
-        <v>0.3831775700934579</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="E88">
-        <v>0.4375804375804376</v>
+        <v>0.4935567010309279</v>
       </c>
       <c r="F88">
-        <v>0.4117647058823529</v>
+        <v>0.31</v>
       </c>
       <c r="G88">
-        <v>0.4017632241813602</v>
+        <v>0.3666245259165613</v>
       </c>
       <c r="H88">
-        <v>0.282</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.4778761061946903</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="C89">
-        <v>0.5062166962699822</v>
+        <v>0.5062861026163779</v>
       </c>
       <c r="D89">
-        <v>0.3644067796610169</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="E89">
-        <v>0.4344473007712082</v>
+        <v>0.496790757381258</v>
       </c>
       <c r="F89">
-        <v>0.2777777777777778</v>
+        <v>0.3113207547169811</v>
       </c>
       <c r="G89">
-        <v>0.3911949685534591</v>
+        <v>0.362155388471178</v>
       </c>
       <c r="H89">
-        <v>0.28</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.504424778761062</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C90">
-        <v>0.50390625</v>
+        <v>0.5047138047138047</v>
       </c>
       <c r="D90">
-        <v>0.3391304347826087</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="E90">
-        <v>0.4321475625823452</v>
+        <v>0.4917407878017789</v>
       </c>
       <c r="F90">
-        <v>0.3663366336633663</v>
+        <v>0.336734693877551</v>
       </c>
       <c r="G90">
-        <v>0.400763358778626</v>
+        <v>0.3638613861386139</v>
       </c>
       <c r="H90">
-        <v>0.28</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5306122448979592</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="C91">
-        <v>0.5029855988760098</v>
+        <v>0.5020093770931011</v>
       </c>
       <c r="D91">
-        <v>0.3488372093023256</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="E91">
-        <v>0.4361979166666667</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="F91">
-        <v>0.3392857142857143</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="G91">
-        <v>0.3937106918238994</v>
+        <v>0.3581907090464548</v>
       </c>
       <c r="H91">
-        <v>0.284</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5047619047619047</v>
+        <v>0.5229357798165137</v>
       </c>
       <c r="C92">
-        <v>0.502973067506121</v>
+        <v>0.4990026595744681</v>
       </c>
       <c r="D92">
-        <v>0.3017241379310345</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="E92">
-        <v>0.4300932090545939</v>
+        <v>0.4955863808322825</v>
       </c>
       <c r="F92">
-        <v>0.3363636363636364</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="G92">
-        <v>0.4007682458386684</v>
+        <v>0.3645200486026732</v>
       </c>
       <c r="H92">
-        <v>0.284</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4905660377358491</v>
+        <v>0.49</v>
       </c>
       <c r="C93">
-        <v>0.5036369934187738</v>
+        <v>0.4978469691950977</v>
       </c>
       <c r="D93">
-        <v>0.3125</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="E93">
-        <v>0.422976501305483</v>
+        <v>0.4923857868020304</v>
       </c>
       <c r="F93">
-        <v>0.3504273504273504</v>
+        <v>0.3563218390804598</v>
       </c>
       <c r="G93">
-        <v>0.4015151515151515</v>
+        <v>0.366626065773447</v>
       </c>
       <c r="H93">
-        <v>0.272</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4862385321100918</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="C94">
-        <v>0.5032679738562091</v>
+        <v>0.5</v>
       </c>
       <c r="D94">
-        <v>0.3523809523809524</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="E94">
-        <v>0.4160206718346253</v>
+        <v>0.4973890339425587</v>
       </c>
       <c r="F94">
-        <v>0.3157894736842105</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="G94">
-        <v>0.4022556390977444</v>
+        <v>0.37</v>
       </c>
       <c r="H94">
-        <v>0.268</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.487603305785124</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="C95">
-        <v>0.5044338335607094</v>
+        <v>0.5003274394237066</v>
       </c>
       <c r="D95">
-        <v>0.3203883495145631</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="E95">
-        <v>0.3994974874371859</v>
+        <v>0.4928292046936115</v>
       </c>
       <c r="F95">
-        <v>0.288659793814433</v>
+        <v>0.3097345132743363</v>
       </c>
       <c r="G95">
-        <v>0.4108241082410824</v>
+        <v>0.3694829760403531</v>
       </c>
       <c r="H95">
-        <v>0.274</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4690265486725664</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="C96">
-        <v>0.5027155465037338</v>
+        <v>0.5013046314416177</v>
       </c>
       <c r="D96">
-        <v>0.2631578947368421</v>
+        <v>0.3884297520661157</v>
       </c>
       <c r="E96">
-        <v>0.4040150564617315</v>
+        <v>0.4796320630749015</v>
       </c>
       <c r="F96">
-        <v>0.3434343434343434</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="G96">
-        <v>0.4093711467324291</v>
+        <v>0.379746835443038</v>
       </c>
       <c r="H96">
-        <v>0.286</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.4695652173913044</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="C97">
-        <v>0.5043682795698925</v>
+        <v>0.5024216984178237</v>
       </c>
       <c r="D97">
-        <v>0.35</v>
+        <v>0.3245614035087719</v>
       </c>
       <c r="E97">
-        <v>0.4017632241813602</v>
+        <v>0.4698331193838254</v>
       </c>
       <c r="F97">
-        <v>0.3142857142857143</v>
+        <v>0.3644067796610169</v>
       </c>
       <c r="G97">
-        <v>0.4093198992443325</v>
+        <v>0.379224030037547</v>
       </c>
       <c r="H97">
-        <v>0.288</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4528301886792453</v>
+        <v>0.5</v>
       </c>
       <c r="C98">
-        <v>0.5034988337220926</v>
+        <v>0.5030361137743689</v>
       </c>
       <c r="D98">
-        <v>0.3418803418803419</v>
+        <v>0.3177570093457944</v>
       </c>
       <c r="E98">
-        <v>0.389873417721519</v>
+        <v>0.4619289340101523</v>
       </c>
       <c r="F98">
-        <v>0.32</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="G98">
-        <v>0.4096080910240202</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="H98">
-        <v>0.29</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4659090909090909</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="C99">
-        <v>0.5057927838464085</v>
+        <v>0.5009560229445507</v>
       </c>
       <c r="D99">
-        <v>0.3577981651376147</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E99">
-        <v>0.3916990920881971</v>
+        <v>0.4527112232030265</v>
       </c>
       <c r="F99">
-        <v>0.3448275862068966</v>
+        <v>0.4095238095238095</v>
       </c>
       <c r="G99">
-        <v>0.4072164948453608</v>
+        <v>0.3838509316770186</v>
       </c>
       <c r="H99">
-        <v>0.294</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.4421052631578947</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="C100">
-        <v>0.5032808398950132</v>
+        <v>0.4981132075471698</v>
       </c>
       <c r="D100">
-        <v>0.282051282051282</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="E100">
-        <v>0.3955613577023498</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="F100">
-        <v>0.3103448275862069</v>
+        <v>0.4</v>
       </c>
       <c r="G100">
-        <v>0.4046692607003891</v>
+        <v>0.3836633663366337</v>
       </c>
       <c r="H100">
-        <v>0.302</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4660194174757282</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C101">
-        <v>0.5032467532467533</v>
+        <v>0.4967074317968015</v>
       </c>
       <c r="D101">
-        <v>0.3584905660377358</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="E101">
-        <v>0.4005102040816326</v>
+        <v>0.4395465994962217</v>
       </c>
       <c r="F101">
-        <v>0.2905982905982906</v>
+        <v>0.4</v>
       </c>
       <c r="G101">
-        <v>0.404040404040404</v>
+        <v>0.3916256157635468</v>
       </c>
       <c r="H101">
-        <v>0.294</v>
+        <v>0.238</v>
       </c>
     </row>
   </sheetData>
